--- a/docs/dataPI.xlsx
+++ b/docs/dataPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jean-michelgalharret/Documents/GitHub/MSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3C2D7B-B67F-2C44-AD25-C55AF0E64E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95209FE4-0E3D-EE46-BB14-01D11C5BE3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="680" windowWidth="16380" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,8 +404,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1470,579 +1470,229 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
-        <v>30</v>
-      </c>
-      <c r="B47" s="3">
-        <v>90</v>
-      </c>
-      <c r="C47" s="3">
-        <v>620</v>
-      </c>
-      <c r="D47" s="3">
-        <v>250</v>
-      </c>
-      <c r="E47" s="3">
-        <v>240</v>
-      </c>
-      <c r="F47" s="3">
-        <v>100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>660</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
-        <v>30</v>
-      </c>
-      <c r="B48" s="3">
-        <v>30</v>
-      </c>
-      <c r="C48" s="3">
-        <v>470</v>
-      </c>
-      <c r="D48" s="3">
-        <v>370</v>
-      </c>
-      <c r="E48" s="3">
-        <v>230</v>
-      </c>
-      <c r="F48" s="3">
-        <v>80</v>
-      </c>
-      <c r="G48" s="3">
-        <v>370</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
-        <v>40</v>
-      </c>
-      <c r="B49" s="3">
-        <v>10</v>
-      </c>
-      <c r="C49" s="3">
-        <v>440</v>
-      </c>
-      <c r="D49" s="3">
-        <v>520</v>
-      </c>
-      <c r="E49" s="3">
-        <v>150</v>
-      </c>
-      <c r="F49" s="3">
-        <v>130</v>
-      </c>
-      <c r="G49" s="3">
-        <v>490</v>
-      </c>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
-        <v>40</v>
-      </c>
-      <c r="B50" s="3">
-        <v>50</v>
-      </c>
-      <c r="C50" s="3">
-        <v>470</v>
-      </c>
-      <c r="D50" s="3">
-        <v>450</v>
-      </c>
-      <c r="E50" s="3">
-        <v>70</v>
-      </c>
-      <c r="F50" s="3">
-        <v>110</v>
-      </c>
-      <c r="G50" s="3">
-        <v>470</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
-        <v>140</v>
-      </c>
-      <c r="B51" s="3">
-        <v>100</v>
-      </c>
-      <c r="C51" s="3">
-        <v>400</v>
-      </c>
-      <c r="D51" s="3">
-        <v>540</v>
-      </c>
-      <c r="E51" s="3">
-        <v>250</v>
-      </c>
-      <c r="F51" s="3">
-        <v>140</v>
-      </c>
-      <c r="G51" s="3">
-        <v>830</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
-        <v>100</v>
-      </c>
-      <c r="B52" s="3">
-        <v>110</v>
-      </c>
-      <c r="C52" s="3">
-        <v>450</v>
-      </c>
-      <c r="D52" s="3">
-        <v>310</v>
-      </c>
-      <c r="E52" s="3">
-        <v>160</v>
-      </c>
-      <c r="F52" s="3">
-        <v>110</v>
-      </c>
-      <c r="G52" s="3">
-        <v>720</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
-        <v>140</v>
-      </c>
-      <c r="B53" s="3">
-        <v>10</v>
-      </c>
-      <c r="C53" s="3">
-        <v>130</v>
-      </c>
-      <c r="D53" s="3">
-        <v>400</v>
-      </c>
-      <c r="E53" s="3">
-        <v>90</v>
-      </c>
-      <c r="F53" s="3">
-        <v>10</v>
-      </c>
-      <c r="G53" s="3">
-        <v>480</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
-        <v>160</v>
-      </c>
-      <c r="B54" s="3">
-        <v>60</v>
-      </c>
-      <c r="C54" s="3">
-        <v>490</v>
-      </c>
-      <c r="D54" s="3">
-        <v>380</v>
-      </c>
-      <c r="E54" s="3">
-        <v>170</v>
-      </c>
-      <c r="F54" s="3">
-        <v>70</v>
-      </c>
-      <c r="G54" s="3">
-        <v>940</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
-        <v>70</v>
-      </c>
-      <c r="B55" s="3">
-        <v>210</v>
-      </c>
-      <c r="C55" s="3">
-        <v>730</v>
-      </c>
-      <c r="D55" s="3">
-        <v>360</v>
-      </c>
-      <c r="E55" s="3">
-        <v>270</v>
-      </c>
-      <c r="F55" s="3">
-        <v>120</v>
-      </c>
-      <c r="G55" s="3">
-        <v>100</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
-        <v>30</v>
-      </c>
-      <c r="B56" s="3">
-        <v>40</v>
-      </c>
-      <c r="C56" s="3">
-        <v>250</v>
-      </c>
-      <c r="D56" s="3">
-        <v>440</v>
-      </c>
-      <c r="E56" s="3">
-        <v>120</v>
-      </c>
-      <c r="F56" s="3">
-        <v>140</v>
-      </c>
-      <c r="G56" s="3">
-        <v>360</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
-        <v>50</v>
-      </c>
-      <c r="B57" s="3">
-        <v>290</v>
-      </c>
-      <c r="C57" s="3">
-        <v>370</v>
-      </c>
-      <c r="D57" s="3">
-        <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>170</v>
-      </c>
-      <c r="F57" s="3">
-        <v>210</v>
-      </c>
-      <c r="G57" s="3">
-        <v>900</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
-        <v>10</v>
-      </c>
-      <c r="B58" s="3">
-        <v>10</v>
-      </c>
-      <c r="C58" s="3">
-        <v>300</v>
-      </c>
-      <c r="D58" s="3">
-        <v>350</v>
-      </c>
-      <c r="E58" s="3">
-        <v>110</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>550</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
-        <v>40</v>
-      </c>
-      <c r="B59" s="3">
-        <v>40</v>
-      </c>
-      <c r="C59" s="3">
-        <v>400</v>
-      </c>
-      <c r="D59" s="3">
-        <v>310</v>
-      </c>
-      <c r="E59" s="3">
-        <v>210</v>
-      </c>
-      <c r="F59" s="3">
-        <v>180</v>
-      </c>
-      <c r="G59" s="3">
-        <v>830</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
-        <v>10</v>
-      </c>
-      <c r="B60" s="3">
-        <v>30</v>
-      </c>
-      <c r="C60" s="3">
-        <v>430</v>
-      </c>
-      <c r="D60" s="3">
-        <v>370</v>
-      </c>
-      <c r="E60" s="3">
-        <v>130</v>
-      </c>
-      <c r="F60" s="3">
-        <v>40</v>
-      </c>
-      <c r="G60" s="3">
-        <v>670</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
-        <v>160</v>
-      </c>
-      <c r="B61" s="3">
-        <v>170</v>
-      </c>
-      <c r="C61" s="3">
-        <v>670</v>
-      </c>
-      <c r="D61" s="3">
-        <v>440</v>
-      </c>
-      <c r="E61" s="3">
-        <v>180</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1130</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
-        <v>140</v>
-      </c>
-      <c r="B62" s="3">
-        <v>70</v>
-      </c>
-      <c r="C62" s="3">
-        <v>620</v>
-      </c>
-      <c r="D62" s="3">
-        <v>250</v>
-      </c>
-      <c r="E62" s="3">
-        <v>180</v>
-      </c>
-      <c r="F62" s="3">
-        <v>80</v>
-      </c>
-      <c r="G62" s="3">
-        <v>800</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
-        <v>70</v>
-      </c>
-      <c r="B63" s="3">
-        <v>90</v>
-      </c>
-      <c r="C63" s="3">
-        <v>470</v>
-      </c>
-      <c r="D63" s="3">
-        <v>320</v>
-      </c>
-      <c r="E63" s="3">
-        <v>60</v>
-      </c>
-      <c r="F63" s="3">
-        <v>110</v>
-      </c>
-      <c r="G63" s="3">
-        <v>770</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
-        <v>110</v>
-      </c>
-      <c r="B64" s="3">
-        <v>40</v>
-      </c>
-      <c r="C64" s="3">
-        <v>610</v>
-      </c>
-      <c r="D64" s="3">
-        <v>430</v>
-      </c>
-      <c r="E64" s="3">
-        <v>100</v>
-      </c>
-      <c r="F64" s="3">
-        <v>80</v>
-      </c>
-      <c r="G64" s="3">
-        <v>490</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
-        <v>140</v>
-      </c>
-      <c r="B65" s="3">
-        <v>10</v>
-      </c>
-      <c r="C65" s="3">
-        <v>710</v>
-      </c>
-      <c r="D65" s="3">
-        <v>380</v>
-      </c>
-      <c r="E65" s="3">
-        <v>90</v>
-      </c>
-      <c r="F65" s="3">
-        <v>60</v>
-      </c>
-      <c r="G65" s="3">
-        <v>740</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
-        <v>110</v>
-      </c>
-      <c r="B66" s="3">
-        <v>130</v>
-      </c>
-      <c r="C66" s="3">
-        <v>430</v>
-      </c>
-      <c r="D66" s="3">
-        <v>400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>60</v>
-      </c>
-      <c r="F66" s="3">
-        <v>140</v>
-      </c>
-      <c r="G66" s="3">
-        <v>490</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
-        <v>70</v>
-      </c>
-      <c r="B67" s="3">
-        <v>180</v>
-      </c>
-      <c r="C67" s="3">
-        <v>370</v>
-      </c>
-      <c r="D67" s="3">
-        <v>290</v>
-      </c>
-      <c r="E67" s="3">
-        <v>70</v>
-      </c>
-      <c r="F67" s="3">
-        <v>100</v>
-      </c>
-      <c r="G67" s="3">
-        <v>500</v>
-      </c>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
-        <v>150</v>
-      </c>
-      <c r="B68" s="3">
-        <v>260</v>
-      </c>
-      <c r="C68" s="3">
-        <v>720</v>
-      </c>
-      <c r="D68" s="3">
-        <v>320</v>
-      </c>
-      <c r="E68" s="3">
-        <v>80</v>
-      </c>
-      <c r="F68" s="3">
-        <v>50</v>
-      </c>
-      <c r="G68" s="3">
-        <v>700</v>
-      </c>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
-        <v>170</v>
-      </c>
-      <c r="B69" s="3">
-        <v>270</v>
-      </c>
-      <c r="C69" s="3">
-        <v>690</v>
-      </c>
-      <c r="D69" s="3">
-        <v>410</v>
-      </c>
-      <c r="E69" s="3">
-        <v>230</v>
-      </c>
-      <c r="F69" s="3">
-        <v>140</v>
-      </c>
-      <c r="G69" s="3">
-        <v>460</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
-        <v>20</v>
-      </c>
-      <c r="B70" s="3">
-        <v>200</v>
-      </c>
-      <c r="C70" s="3">
-        <v>620</v>
-      </c>
-      <c r="D70" s="3">
-        <v>470</v>
-      </c>
-      <c r="E70" s="3">
-        <v>240</v>
-      </c>
-      <c r="F70" s="3">
-        <v>50</v>
-      </c>
-      <c r="G70" s="3">
-        <v>740</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
-        <v>90</v>
-      </c>
-      <c r="B71" s="3">
-        <v>10</v>
-      </c>
-      <c r="C71" s="3">
-        <v>190</v>
-      </c>
-      <c r="D71" s="3">
-        <v>370</v>
-      </c>
-      <c r="E71" s="3">
-        <v>80</v>
-      </c>
-      <c r="F71" s="3">
-        <v>20</v>
-      </c>
-      <c r="G71" s="3">
-        <v>580</v>
-      </c>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
